--- a/artfynd/A 3579-2026 artfynd.xlsx
+++ b/artfynd/A 3579-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130979911</v>
       </c>
       <c r="B2" t="n">
-        <v>80248</v>
+        <v>80252</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -787,10 +787,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130979888</v>
+        <v>130979945</v>
       </c>
       <c r="B3" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -830,10 +830,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>590692</v>
+        <v>590594</v>
       </c>
       <c r="R3" t="n">
-        <v>6963278</v>
+        <v>6963385</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -875,12 +875,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -910,7 +910,7 @@
         <v>130979906</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130979927</v>
+        <v>130979888</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>590832</v>
+        <v>590692</v>
       </c>
       <c r="R5" t="n">
-        <v>6963235</v>
+        <v>6963278</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1147,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130979945</v>
+        <v>130979927</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>590594</v>
+        <v>590832</v>
       </c>
       <c r="R6" t="n">
-        <v>6963385</v>
+        <v>6963235</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1267,10 +1267,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130979891</v>
+        <v>130979933</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>590710</v>
+        <v>590658</v>
       </c>
       <c r="R7" t="n">
-        <v>6963217</v>
+        <v>6963312</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1387,10 +1387,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130979933</v>
+        <v>130979891</v>
       </c>
       <c r="B8" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590658</v>
+        <v>590710</v>
       </c>
       <c r="R8" t="n">
-        <v>6963312</v>
+        <v>6963217</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1510,7 +1510,7 @@
         <v>130979887</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1627,10 +1627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130979935</v>
+        <v>130979926</v>
       </c>
       <c r="B10" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1638,19 +1638,23 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1658,10 +1662,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>590645</v>
+        <v>590852</v>
       </c>
       <c r="R10" t="n">
-        <v>6963341</v>
+        <v>6963248</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1693,7 +1697,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1703,7 +1707,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1730,10 +1734,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130979926</v>
+        <v>130979935</v>
       </c>
       <c r="B11" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1741,23 +1745,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1765,10 +1765,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590852</v>
+        <v>590645</v>
       </c>
       <c r="R11" t="n">
-        <v>6963248</v>
+        <v>6963341</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1840,7 +1840,7 @@
         <v>130979922</v>
       </c>
       <c r="B12" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979924</v>
+        <v>130979916</v>
       </c>
       <c r="B13" t="n">
-        <v>80344</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1968,21 +1968,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590895</v>
+        <v>591098</v>
       </c>
       <c r="R13" t="n">
-        <v>6963262</v>
+        <v>6963187</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2064,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130979916</v>
+        <v>130979909</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>591098</v>
+        <v>591185</v>
       </c>
       <c r="R14" t="n">
-        <v>6963187</v>
+        <v>6963058</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2171,10 +2171,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979909</v>
+        <v>130979924</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>80348</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2182,21 +2182,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>591185</v>
+        <v>590895</v>
       </c>
       <c r="R15" t="n">
-        <v>6963058</v>
+        <v>6963262</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2278,10 +2278,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130979934</v>
+        <v>130979921</v>
       </c>
       <c r="B16" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2311,7 +2311,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590655</v>
+        <v>590951</v>
       </c>
       <c r="R16" t="n">
-        <v>6963332</v>
+        <v>6963242</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2398,10 +2398,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130979937</v>
+        <v>130979928</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590635</v>
+        <v>590813</v>
       </c>
       <c r="R17" t="n">
-        <v>6963366</v>
+        <v>6963212</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2518,10 +2518,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979928</v>
+        <v>130979937</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590813</v>
+        <v>590635</v>
       </c>
       <c r="R18" t="n">
-        <v>6963212</v>
+        <v>6963366</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2638,10 +2638,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979921</v>
+        <v>130979934</v>
       </c>
       <c r="B19" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590951</v>
+        <v>590655</v>
       </c>
       <c r="R19" t="n">
-        <v>6963242</v>
+        <v>6963332</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2758,10 +2758,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130979929</v>
+        <v>130979889</v>
       </c>
       <c r="B20" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590797</v>
+        <v>590701</v>
       </c>
       <c r="R20" t="n">
-        <v>6963219</v>
+        <v>6963240</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska och äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2878,10 +2878,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979889</v>
+        <v>130979919</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590701</v>
+        <v>590971</v>
       </c>
       <c r="R21" t="n">
-        <v>6963240</v>
+        <v>6963236</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>färska och äldre ringhack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2998,10 +2998,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130979919</v>
+        <v>130979929</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>590971</v>
+        <v>590797</v>
       </c>
       <c r="R22" t="n">
-        <v>6963236</v>
+        <v>6963219</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3121,7 +3121,7 @@
         <v>130979908</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>130979918</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3358,10 +3358,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979895</v>
+        <v>130979915</v>
       </c>
       <c r="B25" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3391,7 +3391,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>590687</v>
+        <v>591100</v>
       </c>
       <c r="R25" t="n">
-        <v>6963193</v>
+        <v>6963185</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3478,10 +3478,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979948</v>
+        <v>130979902</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>590579</v>
+        <v>591003</v>
       </c>
       <c r="R26" t="n">
-        <v>6963330</v>
+        <v>6963091</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3598,10 +3598,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130979902</v>
+        <v>130979948</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>591003</v>
+        <v>590579</v>
       </c>
       <c r="R27" t="n">
-        <v>6963091</v>
+        <v>6963330</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3718,10 +3718,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979915</v>
+        <v>130979895</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3751,7 +3751,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3761,10 +3761,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>591100</v>
+        <v>590687</v>
       </c>
       <c r="R28" t="n">
-        <v>6963185</v>
+        <v>6963193</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3806,12 +3806,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>äldre ringhack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3841,7 +3841,7 @@
         <v>130979904</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3958,10 +3958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979897</v>
+        <v>130979947</v>
       </c>
       <c r="B30" t="n">
-        <v>80344</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3969,21 +3969,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590726</v>
+        <v>590591</v>
       </c>
       <c r="R30" t="n">
-        <v>6963153</v>
+        <v>6963354</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4065,10 +4065,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979947</v>
+        <v>130979946</v>
       </c>
       <c r="B31" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4076,34 +4076,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590591</v>
+        <v>590605</v>
       </c>
       <c r="R31" t="n">
-        <v>6963354</v>
+        <v>6963364</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4135,7 +4143,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4153,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4175,7 +4188,7 @@
         <v>130979899</v>
       </c>
       <c r="B32" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4295,7 +4308,7 @@
         <v>130979914</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4412,10 +4425,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979946</v>
+        <v>130979897</v>
       </c>
       <c r="B34" t="n">
-        <v>57880</v>
+        <v>80348</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4423,42 +4436,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590605</v>
+        <v>590726</v>
       </c>
       <c r="R34" t="n">
-        <v>6963364</v>
+        <v>6963153</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4490,7 +4495,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4500,12 +4505,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4535,7 +4535,7 @@
         <v>130979931</v>
       </c>
       <c r="B35" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4652,10 +4652,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>130979944</v>
+        <v>130979912</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>80348</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4663,42 +4663,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>590599</v>
+        <v>591115</v>
       </c>
       <c r="R36" t="n">
-        <v>6963388</v>
+        <v>6963152</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4730,7 +4722,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
@@ -4740,12 +4732,7 @@
       </c>
       <c r="AB36" t="inlineStr">
         <is>
-          <t>09:54</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>11:55</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4775,7 +4762,7 @@
         <v>130979923</v>
       </c>
       <c r="B37" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4892,10 +4879,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130979901</v>
+        <v>130979944</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4935,10 +4922,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>590965</v>
+        <v>590599</v>
       </c>
       <c r="R38" t="n">
-        <v>6963093</v>
+        <v>6963388</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4970,7 +4957,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4980,7 +4967,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>13:08</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -5012,10 +4999,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>130979912</v>
+        <v>130979901</v>
       </c>
       <c r="B39" t="n">
-        <v>80344</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -5023,34 +5010,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>591115</v>
+        <v>590965</v>
       </c>
       <c r="R39" t="n">
-        <v>6963152</v>
+        <v>6963093</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5082,7 +5077,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>13:08</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
@@ -5092,7 +5087,12 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>13:08</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5119,10 +5119,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130979890</v>
+        <v>130979925</v>
       </c>
       <c r="B40" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>590704</v>
+        <v>590855</v>
       </c>
       <c r="R40" t="n">
-        <v>6963217</v>
+        <v>6963228</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5239,10 +5239,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130979900</v>
+        <v>130979890</v>
       </c>
       <c r="B41" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5282,10 +5282,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>590843</v>
+        <v>590704</v>
       </c>
       <c r="R41" t="n">
-        <v>6963130</v>
+        <v>6963217</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -5359,10 +5359,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130979925</v>
+        <v>130979900</v>
       </c>
       <c r="B42" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>590855</v>
+        <v>590843</v>
       </c>
       <c r="R42" t="n">
-        <v>6963228</v>
+        <v>6963130</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5482,7 +5482,7 @@
         <v>130979894</v>
       </c>
       <c r="B43" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130979936</v>
+        <v>130979917</v>
       </c>
       <c r="B44" t="n">
-        <v>57880</v>
+        <v>91808</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5610,42 +5610,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>590647</v>
+        <v>591077</v>
       </c>
       <c r="R44" t="n">
-        <v>6963338</v>
+        <v>6963186</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5677,7 +5669,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5687,12 +5679,7 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>10:19</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Äldre sannolikt bohål i grantickerötad gran. Omkring 1.5 meter ovan mark. Bohålsdiametern är ungefär 4.5 cm. I lämplig biotop för arten.</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5719,10 +5706,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130979917</v>
+        <v>130979936</v>
       </c>
       <c r="B45" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5730,34 +5717,42 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>591077</v>
+        <v>590647</v>
       </c>
       <c r="R45" t="n">
-        <v>6963186</v>
+        <v>6963338</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5789,7 +5784,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5799,7 +5794,12 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:19</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Äldre sannolikt bohål i grantickerötad gran. Omkring 1.5 meter ovan mark. Bohålsdiametern är ungefär 4.5 cm. I lämplig biotop för arten.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5829,7 +5829,7 @@
         <v>130979940</v>
       </c>
       <c r="B46" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5946,10 +5946,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130979930</v>
+        <v>130979932</v>
       </c>
       <c r="B47" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5979,7 +5979,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>590789</v>
+        <v>590660</v>
       </c>
       <c r="R47" t="n">
-        <v>6963216</v>
+        <v>6963313</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6069,7 +6069,7 @@
         <v>130979907</v>
       </c>
       <c r="B48" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -6189,7 +6189,7 @@
         <v>130979920</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6306,10 +6306,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130979932</v>
+        <v>130979930</v>
       </c>
       <c r="B50" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6339,7 +6339,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -6349,10 +6349,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>590660</v>
+        <v>590789</v>
       </c>
       <c r="R50" t="n">
-        <v>6963313</v>
+        <v>6963216</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6394,12 +6394,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6429,7 +6429,7 @@
         <v>130979913</v>
       </c>
       <c r="B51" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6546,10 +6546,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130979898</v>
+        <v>130979941</v>
       </c>
       <c r="B52" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6557,42 +6557,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>590830</v>
+        <v>590615</v>
       </c>
       <c r="R52" t="n">
-        <v>6963134</v>
+        <v>6963396</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6624,7 +6616,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6634,12 +6626,7 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>13:17</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6666,10 +6653,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130979903</v>
+        <v>130979905</v>
       </c>
       <c r="B53" t="n">
-        <v>57880</v>
+        <v>91808</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6677,42 +6664,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>591048</v>
+        <v>591056</v>
       </c>
       <c r="R53" t="n">
-        <v>6963038</v>
+        <v>6963042</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6744,7 +6723,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6754,12 +6733,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6786,10 +6760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130979943</v>
+        <v>130979893</v>
       </c>
       <c r="B54" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6829,10 +6803,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590608</v>
+        <v>590717</v>
       </c>
       <c r="R54" t="n">
-        <v>6963380</v>
+        <v>6963211</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6864,7 +6838,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6874,7 +6848,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -6906,10 +6880,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130979893</v>
+        <v>130979903</v>
       </c>
       <c r="B55" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6949,10 +6923,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>590717</v>
+        <v>591048</v>
       </c>
       <c r="R55" t="n">
-        <v>6963211</v>
+        <v>6963038</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6984,7 +6958,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6994,7 +6968,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -7026,10 +7000,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979905</v>
+        <v>130979943</v>
       </c>
       <c r="B56" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7037,34 +7011,42 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>591056</v>
+        <v>590608</v>
       </c>
       <c r="R56" t="n">
-        <v>6963042</v>
+        <v>6963380</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7096,7 +7078,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7106,7 +7088,12 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>09:56</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7133,10 +7120,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979941</v>
+        <v>130979898</v>
       </c>
       <c r="B57" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7144,34 +7131,42 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590615</v>
+        <v>590830</v>
       </c>
       <c r="R57" t="n">
-        <v>6963396</v>
+        <v>6963134</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7203,7 +7198,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7213,7 +7208,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 3579-2026 artfynd.xlsx
+++ b/artfynd/A 3579-2026 artfynd.xlsx
@@ -3958,10 +3958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979947</v>
+        <v>130979946</v>
       </c>
       <c r="B30" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3969,34 +3969,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590591</v>
+        <v>590605</v>
       </c>
       <c r="R30" t="n">
-        <v>6963354</v>
+        <v>6963364</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4028,7 +4036,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4038,7 +4046,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4065,7 +4078,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979946</v>
+        <v>130979899</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4108,10 +4121,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590605</v>
+        <v>590850</v>
       </c>
       <c r="R31" t="n">
-        <v>6963364</v>
+        <v>6963133</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4143,7 +4156,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4153,7 +4166,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -4185,7 +4198,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130979899</v>
+        <v>130979914</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4228,10 +4241,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590850</v>
+        <v>591126</v>
       </c>
       <c r="R32" t="n">
-        <v>6963133</v>
+        <v>6963169</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4263,7 +4276,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4273,12 +4286,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4305,10 +4318,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130979914</v>
+        <v>130979897</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4316,42 +4329,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>591126</v>
+        <v>590726</v>
       </c>
       <c r="R33" t="n">
-        <v>6963169</v>
+        <v>6963153</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4383,7 +4388,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4393,12 +4398,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4425,10 +4425,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979897</v>
+        <v>130979947</v>
       </c>
       <c r="B34" t="n">
-        <v>80348</v>
+        <v>91808</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4436,21 +4436,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4460,10 +4460,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590726</v>
+        <v>590591</v>
       </c>
       <c r="R34" t="n">
-        <v>6963153</v>
+        <v>6963354</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4495,7 +4495,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4505,7 +4505,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD34" t="b">

--- a/artfynd/A 3579-2026 artfynd.xlsx
+++ b/artfynd/A 3579-2026 artfynd.xlsx
@@ -1957,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979916</v>
+        <v>130979924</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1968,21 +1968,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>591098</v>
+        <v>590895</v>
       </c>
       <c r="R13" t="n">
-        <v>6963187</v>
+        <v>6963262</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2064,7 +2064,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130979909</v>
+        <v>130979916</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>591185</v>
+        <v>591098</v>
       </c>
       <c r="R14" t="n">
-        <v>6963058</v>
+        <v>6963187</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2171,10 +2171,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979924</v>
+        <v>130979909</v>
       </c>
       <c r="B15" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2182,21 +2182,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>590895</v>
+        <v>591185</v>
       </c>
       <c r="R15" t="n">
-        <v>6963262</v>
+        <v>6963058</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -3958,10 +3958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979946</v>
+        <v>130979947</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3969,42 +3969,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590605</v>
+        <v>590591</v>
       </c>
       <c r="R30" t="n">
-        <v>6963364</v>
+        <v>6963354</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4036,7 +4028,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4046,12 +4038,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4078,10 +4065,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979899</v>
+        <v>130979897</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4089,42 +4076,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590850</v>
+        <v>590726</v>
       </c>
       <c r="R31" t="n">
-        <v>6963133</v>
+        <v>6963153</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4156,7 +4135,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4166,12 +4145,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4198,7 +4172,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130979914</v>
+        <v>130979946</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4241,10 +4215,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>591126</v>
+        <v>590605</v>
       </c>
       <c r="R32" t="n">
-        <v>6963169</v>
+        <v>6963364</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4276,7 +4250,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4286,12 +4260,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4318,10 +4292,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130979897</v>
+        <v>130979899</v>
       </c>
       <c r="B33" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4329,34 +4303,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590726</v>
+        <v>590850</v>
       </c>
       <c r="R33" t="n">
-        <v>6963153</v>
+        <v>6963133</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4388,7 +4370,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4398,7 +4380,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4425,10 +4412,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979947</v>
+        <v>130979914</v>
       </c>
       <c r="B34" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4436,34 +4423,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590591</v>
+        <v>591126</v>
       </c>
       <c r="R34" t="n">
-        <v>6963354</v>
+        <v>6963169</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4495,7 +4490,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4505,7 +4500,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -6653,10 +6653,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130979905</v>
+        <v>130979893</v>
       </c>
       <c r="B53" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6664,34 +6664,42 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>591056</v>
+        <v>590717</v>
       </c>
       <c r="R53" t="n">
-        <v>6963042</v>
+        <v>6963211</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6723,7 +6731,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6733,7 +6741,12 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6760,7 +6773,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130979893</v>
+        <v>130979903</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -6803,10 +6816,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590717</v>
+        <v>591048</v>
       </c>
       <c r="R54" t="n">
-        <v>6963211</v>
+        <v>6963038</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6838,7 +6851,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6848,7 +6861,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -6880,7 +6893,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130979903</v>
+        <v>130979943</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6923,10 +6936,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>591048</v>
+        <v>590608</v>
       </c>
       <c r="R55" t="n">
-        <v>6963038</v>
+        <v>6963380</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6958,7 +6971,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6968,7 +6981,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -7000,7 +7013,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979943</v>
+        <v>130979898</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -7043,10 +7056,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590608</v>
+        <v>590830</v>
       </c>
       <c r="R56" t="n">
-        <v>6963380</v>
+        <v>6963134</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7078,7 +7091,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7088,7 +7101,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -7120,10 +7133,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979898</v>
+        <v>130979905</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7131,42 +7144,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590830</v>
+        <v>591056</v>
       </c>
       <c r="R57" t="n">
-        <v>6963134</v>
+        <v>6963042</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7198,7 +7203,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7208,12 +7213,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:17</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 3579-2026 artfynd.xlsx
+++ b/artfynd/A 3579-2026 artfynd.xlsx
@@ -1957,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979924</v>
+        <v>130979909</v>
       </c>
       <c r="B13" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1968,21 +1968,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>590895</v>
+        <v>591185</v>
       </c>
       <c r="R13" t="n">
-        <v>6963262</v>
+        <v>6963058</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2064,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130979916</v>
+        <v>130979924</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>591098</v>
+        <v>590895</v>
       </c>
       <c r="R14" t="n">
-        <v>6963187</v>
+        <v>6963262</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979909</v>
+        <v>130979916</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>591185</v>
+        <v>591098</v>
       </c>
       <c r="R15" t="n">
-        <v>6963058</v>
+        <v>6963187</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -3958,10 +3958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979947</v>
+        <v>130979946</v>
       </c>
       <c r="B30" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3969,34 +3969,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590591</v>
+        <v>590605</v>
       </c>
       <c r="R30" t="n">
-        <v>6963354</v>
+        <v>6963364</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4028,7 +4036,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4038,7 +4046,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>09:47</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4065,10 +4078,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979897</v>
+        <v>130979899</v>
       </c>
       <c r="B31" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4076,34 +4089,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590726</v>
+        <v>590850</v>
       </c>
       <c r="R31" t="n">
-        <v>6963153</v>
+        <v>6963133</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4135,7 +4156,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4166,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4172,7 +4198,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130979946</v>
+        <v>130979914</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4215,10 +4241,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590605</v>
+        <v>591126</v>
       </c>
       <c r="R32" t="n">
-        <v>6963364</v>
+        <v>6963169</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4250,7 +4276,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4260,12 +4286,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4292,10 +4318,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130979899</v>
+        <v>130979947</v>
       </c>
       <c r="B33" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4303,42 +4329,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590850</v>
+        <v>590591</v>
       </c>
       <c r="R33" t="n">
-        <v>6963133</v>
+        <v>6963354</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4370,7 +4388,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4380,12 +4398,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4412,10 +4425,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979914</v>
+        <v>130979897</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4423,42 +4436,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>591126</v>
+        <v>590726</v>
       </c>
       <c r="R34" t="n">
-        <v>6963169</v>
+        <v>6963153</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4490,7 +4495,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4500,12 +4505,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -6653,10 +6653,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130979893</v>
+        <v>130979905</v>
       </c>
       <c r="B53" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6664,42 +6664,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>590717</v>
+        <v>591056</v>
       </c>
       <c r="R53" t="n">
-        <v>6963211</v>
+        <v>6963042</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6731,7 +6723,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6741,12 +6733,7 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6773,7 +6760,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130979903</v>
+        <v>130979893</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -6816,10 +6803,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>591048</v>
+        <v>590717</v>
       </c>
       <c r="R54" t="n">
-        <v>6963038</v>
+        <v>6963211</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6851,7 +6838,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6861,7 +6848,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -6893,7 +6880,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130979943</v>
+        <v>130979903</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6936,10 +6923,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>590608</v>
+        <v>591048</v>
       </c>
       <c r="R55" t="n">
-        <v>6963380</v>
+        <v>6963038</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6971,7 +6958,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6981,7 +6968,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -7013,7 +7000,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979898</v>
+        <v>130979943</v>
       </c>
       <c r="B56" t="n">
         <v>57884</v>
@@ -7056,10 +7043,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590830</v>
+        <v>590608</v>
       </c>
       <c r="R56" t="n">
-        <v>6963134</v>
+        <v>6963380</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7091,7 +7078,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7101,7 +7088,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -7133,10 +7120,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979905</v>
+        <v>130979898</v>
       </c>
       <c r="B57" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7144,34 +7131,42 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>591056</v>
+        <v>590830</v>
       </c>
       <c r="R57" t="n">
-        <v>6963042</v>
+        <v>6963134</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7203,7 +7198,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7213,7 +7208,12 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD57" t="b">

--- a/artfynd/A 3579-2026 artfynd.xlsx
+++ b/artfynd/A 3579-2026 artfynd.xlsx
@@ -680,45 +680,53 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130979911</v>
+        <v>130979945</v>
       </c>
       <c r="B2" t="n">
-        <v>80252</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6456</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>591152</v>
+        <v>590594</v>
       </c>
       <c r="R2" t="n">
-        <v>6963132</v>
+        <v>6963385</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -760,7 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:52</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -787,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130979945</v>
+        <v>130979906</v>
       </c>
       <c r="B3" t="n">
         <v>57884</v>
@@ -830,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>590594</v>
+        <v>591163</v>
       </c>
       <c r="R3" t="n">
-        <v>6963385</v>
+        <v>6963104</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -875,7 +888,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>12:38</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -907,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130979906</v>
+        <v>130979888</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -950,10 +963,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>591163</v>
+        <v>590692</v>
       </c>
       <c r="R4" t="n">
-        <v>6963104</v>
+        <v>6963278</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -985,7 +998,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -995,12 +1008,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>12:38</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1027,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130979888</v>
+        <v>130979927</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1070,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>590692</v>
+        <v>590832</v>
       </c>
       <c r="R5" t="n">
-        <v>6963278</v>
+        <v>6963235</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1105,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1115,12 +1128,12 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1147,53 +1160,45 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130979927</v>
+        <v>130979911</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>80252</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6456</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>590832</v>
+        <v>591152</v>
       </c>
       <c r="R6" t="n">
-        <v>6963235</v>
+        <v>6963132</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1225,7 +1230,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1235,12 +1240,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>10:55</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1627,10 +1627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130979926</v>
+        <v>130979935</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1638,23 +1638,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1662,10 +1658,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>590852</v>
+        <v>590645</v>
       </c>
       <c r="R10" t="n">
-        <v>6963248</v>
+        <v>6963341</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,7 +1693,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1707,7 +1703,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>10:22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1734,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130979935</v>
+        <v>130979922</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1745,30 +1741,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590645</v>
+        <v>590936</v>
       </c>
       <c r="R11" t="n">
-        <v>6963341</v>
+        <v>6963244</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,7 +1808,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1810,7 +1818,12 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>10:22</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1837,10 +1850,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130979922</v>
+        <v>130979926</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1848,42 +1861,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>590936</v>
+        <v>590852</v>
       </c>
       <c r="R12" t="n">
-        <v>6963244</v>
+        <v>6963248</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,7 +1920,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1925,12 +1930,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130979909</v>
+        <v>130979924</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>80348</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1968,21 +1968,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>591185</v>
+        <v>590895</v>
       </c>
       <c r="R13" t="n">
-        <v>6963058</v>
+        <v>6963262</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>12:23</t>
+          <t>11:11</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2064,10 +2064,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130979924</v>
+        <v>130979916</v>
       </c>
       <c r="B14" t="n">
-        <v>80348</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2075,21 +2075,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>590895</v>
+        <v>591098</v>
       </c>
       <c r="R14" t="n">
-        <v>6963262</v>
+        <v>6963187</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>11:11</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130979916</v>
+        <v>130979909</v>
       </c>
       <c r="B15" t="n">
         <v>79243</v>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>591098</v>
+        <v>591185</v>
       </c>
       <c r="R15" t="n">
-        <v>6963187</v>
+        <v>6963058</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -3958,10 +3958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979946</v>
+        <v>130979897</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3969,42 +3969,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590605</v>
+        <v>590726</v>
       </c>
       <c r="R30" t="n">
-        <v>6963364</v>
+        <v>6963153</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4036,7 +4028,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4046,12 +4038,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>09:47</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4078,10 +4065,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979899</v>
+        <v>130979947</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4089,42 +4076,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590850</v>
+        <v>590591</v>
       </c>
       <c r="R31" t="n">
-        <v>6963133</v>
+        <v>6963354</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4156,7 +4135,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4166,12 +4145,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>13:16</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4198,7 +4172,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130979914</v>
+        <v>130979946</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4241,10 +4215,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>591126</v>
+        <v>590605</v>
       </c>
       <c r="R32" t="n">
-        <v>6963169</v>
+        <v>6963364</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4276,7 +4250,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4286,12 +4260,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4318,10 +4292,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130979947</v>
+        <v>130979899</v>
       </c>
       <c r="B33" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4329,34 +4303,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590591</v>
+        <v>590850</v>
       </c>
       <c r="R33" t="n">
-        <v>6963354</v>
+        <v>6963133</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4388,7 +4370,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4398,7 +4380,12 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4425,10 +4412,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979897</v>
+        <v>130979914</v>
       </c>
       <c r="B34" t="n">
-        <v>80348</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4436,34 +4423,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>590726</v>
+        <v>591126</v>
       </c>
       <c r="R34" t="n">
-        <v>6963153</v>
+        <v>6963169</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4495,7 +4490,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4505,7 +4500,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>11:44</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD34" t="b">

--- a/artfynd/A 3579-2026 artfynd.xlsx
+++ b/artfynd/A 3579-2026 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130979945</v>
+        <v>130979888</v>
       </c>
       <c r="B2" t="n">
         <v>57884</v>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>590594</v>
+        <v>590692</v>
       </c>
       <c r="R2" t="n">
-        <v>6963385</v>
+        <v>6963278</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -920,7 +920,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130979888</v>
+        <v>130979927</v>
       </c>
       <c r="B4" t="n">
         <v>57884</v>
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>590692</v>
+        <v>590832</v>
       </c>
       <c r="R4" t="n">
-        <v>6963278</v>
+        <v>6963235</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,7 +998,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1008,12 +1008,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>10:55</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1040,7 +1040,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130979927</v>
+        <v>130979945</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>590832</v>
+        <v>590594</v>
       </c>
       <c r="R5" t="n">
-        <v>6963235</v>
+        <v>6963385</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>10:55</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130979933</v>
+        <v>130979891</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1310,10 +1310,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>590658</v>
+        <v>590710</v>
       </c>
       <c r="R7" t="n">
-        <v>6963312</v>
+        <v>6963217</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1387,7 +1387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130979891</v>
+        <v>130979933</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1430,10 +1430,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>590710</v>
+        <v>590658</v>
       </c>
       <c r="R8" t="n">
-        <v>6963217</v>
+        <v>6963312</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>10:27</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1730,10 +1730,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130979922</v>
+        <v>130979926</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1741,42 +1741,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>590936</v>
+        <v>590852</v>
       </c>
       <c r="R11" t="n">
-        <v>6963244</v>
+        <v>6963248</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1808,7 +1800,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1818,12 +1810,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1850,10 +1837,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130979926</v>
+        <v>130979922</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1861,34 +1848,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>590852</v>
+        <v>590936</v>
       </c>
       <c r="R12" t="n">
-        <v>6963248</v>
+        <v>6963244</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,7 +1915,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1930,7 +1925,12 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2278,7 +2278,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130979921</v>
+        <v>130979934</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2311,7 +2311,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2321,10 +2321,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>590951</v>
+        <v>590655</v>
       </c>
       <c r="R16" t="n">
-        <v>6963242</v>
+        <v>6963332</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2356,7 +2356,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>11:18</t>
+          <t>10:25</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2398,7 +2398,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130979928</v>
+        <v>130979937</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2441,10 +2441,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>590813</v>
+        <v>590635</v>
       </c>
       <c r="R17" t="n">
-        <v>6963212</v>
+        <v>6963366</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2486,12 +2486,12 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>10:52</t>
+          <t>10:14</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2518,7 +2518,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130979937</v>
+        <v>130979928</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>590635</v>
+        <v>590813</v>
       </c>
       <c r="R18" t="n">
-        <v>6963366</v>
+        <v>6963212</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2606,12 +2606,12 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>10:52</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2638,7 +2638,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130979934</v>
+        <v>130979921</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2671,7 +2671,7 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N19" t="inlineStr"/>
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>590655</v>
+        <v>590951</v>
       </c>
       <c r="R19" t="n">
-        <v>6963332</v>
+        <v>6963242</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2716,7 +2716,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>10:25</t>
+          <t>11:18</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2758,7 +2758,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130979889</v>
+        <v>130979929</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>590701</v>
+        <v>590797</v>
       </c>
       <c r="R20" t="n">
-        <v>6963240</v>
+        <v>6963219</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2846,12 +2846,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>13:34</t>
+          <t>10:50</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>färska och äldre ringhack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2878,7 +2878,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130979919</v>
+        <v>130979889</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2921,10 +2921,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>590971</v>
+        <v>590701</v>
       </c>
       <c r="R21" t="n">
-        <v>6963236</v>
+        <v>6963240</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>11:20</t>
+          <t>13:34</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska och äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2998,7 +2998,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130979929</v>
+        <v>130979919</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -3041,10 +3041,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>590797</v>
+        <v>590971</v>
       </c>
       <c r="R22" t="n">
-        <v>6963219</v>
+        <v>6963236</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>10:50</t>
+          <t>11:20</t>
         </is>
       </c>
       <c r="AC22" t="inlineStr">
@@ -3358,7 +3358,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130979915</v>
+        <v>130979895</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3391,7 +3391,7 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N25" t="inlineStr"/>
@@ -3401,10 +3401,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>591100</v>
+        <v>590687</v>
       </c>
       <c r="R25" t="n">
-        <v>6963185</v>
+        <v>6963193</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
@@ -3446,12 +3446,12 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>13:27</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>äldre ringhack på gran</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3478,7 +3478,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>130979902</v>
+        <v>130979948</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3521,10 +3521,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>591003</v>
+        <v>590579</v>
       </c>
       <c r="R26" t="n">
-        <v>6963091</v>
+        <v>6963330</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
@@ -3598,7 +3598,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130979948</v>
+        <v>130979902</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>590579</v>
+        <v>591003</v>
       </c>
       <c r="R27" t="n">
-        <v>6963330</v>
+        <v>6963091</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
@@ -3686,7 +3686,7 @@
       </c>
       <c r="AB27" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AC27" t="inlineStr">
@@ -3718,7 +3718,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130979895</v>
+        <v>130979915</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3751,7 +3751,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -3761,10 +3761,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>590687</v>
+        <v>591100</v>
       </c>
       <c r="R28" t="n">
-        <v>6963193</v>
+        <v>6963185</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
@@ -3806,12 +3806,12 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>13:27</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>äldre ringhack på gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3958,10 +3958,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>130979897</v>
+        <v>130979947</v>
       </c>
       <c r="B30" t="n">
-        <v>80348</v>
+        <v>91808</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3969,21 +3969,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3993,10 +3993,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>590726</v>
+        <v>590591</v>
       </c>
       <c r="R30" t="n">
-        <v>6963153</v>
+        <v>6963354</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>13:24</t>
+          <t>09:45</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4065,10 +4065,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130979947</v>
+        <v>130979899</v>
       </c>
       <c r="B31" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4076,34 +4076,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>590591</v>
+        <v>590850</v>
       </c>
       <c r="R31" t="n">
-        <v>6963354</v>
+        <v>6963133</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4135,7 +4143,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -4145,7 +4153,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>09:45</t>
+          <t>13:16</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4172,7 +4185,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130979946</v>
+        <v>130979914</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4215,10 +4228,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>590605</v>
+        <v>591126</v>
       </c>
       <c r="R32" t="n">
-        <v>6963364</v>
+        <v>6963169</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4250,7 +4263,7 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
@@ -4260,12 +4273,12 @@
       </c>
       <c r="AB32" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4292,7 +4305,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130979899</v>
+        <v>130979946</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4335,10 +4348,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>590850</v>
+        <v>590605</v>
       </c>
       <c r="R33" t="n">
-        <v>6963133</v>
+        <v>6963364</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4370,7 +4383,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
@@ -4380,7 +4393,7 @@
       </c>
       <c r="AB33" t="inlineStr">
         <is>
-          <t>13:16</t>
+          <t>09:47</t>
         </is>
       </c>
       <c r="AC33" t="inlineStr">
@@ -4412,10 +4425,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130979914</v>
+        <v>130979897</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>80348</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4423,42 +4436,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>591126</v>
+        <v>590726</v>
       </c>
       <c r="R34" t="n">
-        <v>6963169</v>
+        <v>6963153</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4490,7 +4495,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>11:44</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
@@ -4500,12 +4505,7 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>11:44</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>färska ringhack på tall</t>
+          <t>13:24</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4759,7 +4759,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>130979923</v>
+        <v>130979944</v>
       </c>
       <c r="B37" t="n">
         <v>57884</v>
@@ -4802,10 +4802,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>590913</v>
+        <v>590599</v>
       </c>
       <c r="R37" t="n">
-        <v>6963246</v>
+        <v>6963388</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4837,7 +4837,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="AB37" t="inlineStr">
         <is>
-          <t>11:14</t>
+          <t>09:54</t>
         </is>
       </c>
       <c r="AC37" t="inlineStr">
@@ -4879,7 +4879,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>130979944</v>
+        <v>130979923</v>
       </c>
       <c r="B38" t="n">
         <v>57884</v>
@@ -4922,10 +4922,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>590599</v>
+        <v>590913</v>
       </c>
       <c r="R38" t="n">
-        <v>6963388</v>
+        <v>6963246</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>09:54</t>
+          <t>11:14</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
@@ -5119,7 +5119,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>130979925</v>
+        <v>130979890</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>590855</v>
+        <v>590704</v>
       </c>
       <c r="R40" t="n">
-        <v>6963228</v>
+        <v>6963217</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -5207,12 +5207,12 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>13:32</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5239,7 +5239,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>130979890</v>
+        <v>130979900</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -5282,10 +5282,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>590704</v>
+        <v>590843</v>
       </c>
       <c r="R41" t="n">
-        <v>6963217</v>
+        <v>6963130</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="AB41" t="inlineStr">
         <is>
-          <t>13:32</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -5359,7 +5359,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>130979900</v>
+        <v>130979925</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>590843</v>
+        <v>590855</v>
       </c>
       <c r="R42" t="n">
-        <v>6963130</v>
+        <v>6963228</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5437,7 +5437,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:02</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>färska ringhack på gran</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5599,10 +5599,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>130979917</v>
+        <v>130979936</v>
       </c>
       <c r="B44" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5610,34 +5610,42 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>591077</v>
+        <v>590647</v>
       </c>
       <c r="R44" t="n">
-        <v>6963186</v>
+        <v>6963338</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5669,7 +5677,7 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:19</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
@@ -5679,7 +5687,12 @@
       </c>
       <c r="AB44" t="inlineStr">
         <is>
-          <t>11:38</t>
+          <t>10:19</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Äldre sannolikt bohål i grantickerötad gran. Omkring 1.5 meter ovan mark. Bohålsdiametern är ungefär 4.5 cm. I lämplig biotop för arten.</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5706,10 +5719,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>130979936</v>
+        <v>130979917</v>
       </c>
       <c r="B45" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5717,42 +5730,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>590647</v>
+        <v>591077</v>
       </c>
       <c r="R45" t="n">
-        <v>6963338</v>
+        <v>6963186</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5784,7 +5789,7 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>10:19</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
@@ -5794,12 +5799,7 @@
       </c>
       <c r="AB45" t="inlineStr">
         <is>
-          <t>10:19</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>Äldre sannolikt bohål i grantickerötad gran. Omkring 1.5 meter ovan mark. Bohålsdiametern är ungefär 4.5 cm. I lämplig biotop för arten.</t>
+          <t>11:38</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5946,7 +5946,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>130979932</v>
+        <v>130979930</v>
       </c>
       <c r="B47" t="n">
         <v>57884</v>
@@ -5979,7 +5979,7 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>590660</v>
+        <v>590789</v>
       </c>
       <c r="R47" t="n">
-        <v>6963313</v>
+        <v>6963216</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="AB47" t="inlineStr">
         <is>
-          <t>10:28</t>
+          <t>10:49</t>
         </is>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>färska ringhack på tall</t>
+          <t>äldre ringhack på tall</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6306,7 +6306,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>130979930</v>
+        <v>130979932</v>
       </c>
       <c r="B50" t="n">
         <v>57884</v>
@@ -6339,7 +6339,7 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N50" t="inlineStr"/>
@@ -6349,10 +6349,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>590789</v>
+        <v>590660</v>
       </c>
       <c r="R50" t="n">
-        <v>6963216</v>
+        <v>6963313</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6384,7 +6384,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
@@ -6394,12 +6394,12 @@
       </c>
       <c r="AB50" t="inlineStr">
         <is>
-          <t>10:49</t>
+          <t>10:28</t>
         </is>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>äldre ringhack på tall</t>
+          <t>färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6546,10 +6546,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>130979941</v>
+        <v>130979898</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6557,34 +6557,42 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>590615</v>
+        <v>590830</v>
       </c>
       <c r="R52" t="n">
-        <v>6963396</v>
+        <v>6963134</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6616,7 +6624,7 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
@@ -6626,7 +6634,12 @@
       </c>
       <c r="AB52" t="inlineStr">
         <is>
-          <t>09:59</t>
+          <t>13:17</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6653,10 +6666,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>130979905</v>
+        <v>130979903</v>
       </c>
       <c r="B53" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6664,34 +6677,42 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>591056</v>
+        <v>591048</v>
       </c>
       <c r="R53" t="n">
-        <v>6963042</v>
+        <v>6963038</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6723,7 +6744,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
@@ -6733,7 +6754,12 @@
       </c>
       <c r="AB53" t="inlineStr">
         <is>
-          <t>12:46</t>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>färska ringhack på gran</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6760,7 +6786,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>130979893</v>
+        <v>130979943</v>
       </c>
       <c r="B54" t="n">
         <v>57884</v>
@@ -6803,10 +6829,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>590717</v>
+        <v>590608</v>
       </c>
       <c r="R54" t="n">
-        <v>6963211</v>
+        <v>6963380</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6838,7 +6864,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -6848,7 +6874,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>09:56</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -6880,7 +6906,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>130979903</v>
+        <v>130979893</v>
       </c>
       <c r="B55" t="n">
         <v>57884</v>
@@ -6923,10 +6949,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>591048</v>
+        <v>590717</v>
       </c>
       <c r="R55" t="n">
-        <v>6963038</v>
+        <v>6963211</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6958,7 +6984,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6968,7 +6994,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="AC55" t="inlineStr">
@@ -7000,10 +7026,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>130979943</v>
+        <v>130979905</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -7011,42 +7037,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>590608</v>
+        <v>591056</v>
       </c>
       <c r="R56" t="n">
-        <v>6963380</v>
+        <v>6963042</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7078,7 +7096,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -7088,12 +7106,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>09:56</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>12:46</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7120,10 +7133,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>130979898</v>
+        <v>130979941</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -7131,42 +7144,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Långnäset, Mpd</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>590830</v>
+        <v>590615</v>
       </c>
       <c r="R57" t="n">
-        <v>6963134</v>
+        <v>6963396</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7198,7 +7203,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>13:17</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7208,12 +7213,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>13:17</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>färska ringhack på gran</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="AD57" t="b">
